--- a/doors-detector/results/house2_door_no_door.xlsx
+++ b/doors-detector/results/house2_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8092319426247945</v>
+        <v>0.8192913843138337</v>
       </c>
       <c r="F2" t="n">
         <v>5290</v>
       </c>
       <c r="G2" t="n">
-        <v>4528</v>
+        <v>4561</v>
       </c>
       <c r="H2" t="n">
-        <v>762</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.549949720313895</v>
+        <v>0.5304737217713594</v>
       </c>
       <c r="F3" t="n">
         <v>185</v>
       </c>
       <c r="G3" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H3" t="n">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7845000506655277</v>
+        <v>0.7864110550985476</v>
       </c>
       <c r="F4" t="n">
         <v>5290</v>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8068944160437665</v>
+        <v>0.7908911485663018</v>
       </c>
       <c r="F5" t="n">
         <v>185</v>
@@ -600,7 +600,7 @@
         <v>169</v>
       </c>
       <c r="H5" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8203510142740007</v>
+        <v>0.8309877676069819</v>
       </c>
       <c r="F6" t="n">
         <v>5290</v>
       </c>
       <c r="G6" t="n">
-        <v>4623</v>
+        <v>4647</v>
       </c>
       <c r="H6" t="n">
-        <v>667</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8631544616655382</v>
+        <v>0.8428572921361209</v>
       </c>
       <c r="F7" t="n">
         <v>185</v>
       </c>
       <c r="G7" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H7" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8007874671216951</v>
+        <v>0.8006306391761587</v>
       </c>
       <c r="F8" t="n">
         <v>5290</v>
       </c>
       <c r="G8" t="n">
-        <v>4560</v>
+        <v>4554</v>
       </c>
       <c r="H8" t="n">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8799755594960916</v>
+        <v>0.879956595757693</v>
       </c>
       <c r="F9" t="n">
         <v>185</v>
@@ -728,7 +728,7 @@
         <v>174</v>
       </c>
       <c r="H9" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
